--- a/LplcOpenDataConverter/LplcOpenDataConverter/genko/センサ毎のNPD比/200.xlsx
+++ b/LplcOpenDataConverter/LplcOpenDataConverter/genko/センサ毎のNPD比/200.xlsx
@@ -827,11 +827,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="472828656"/>
-        <c:axId val="472832968"/>
+        <c:axId val="191562832"/>
+        <c:axId val="191563616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="472828656"/>
+        <c:axId val="191562832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -929,7 +929,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472832968"/>
+        <c:crossAx val="191563616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -937,7 +937,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="472832968"/>
+        <c:axId val="191563616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1049,7 +1049,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472828656"/>
+        <c:crossAx val="191562832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -2004,10 +2004,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:F20" si="0">C3+D3</f>
+        <f t="shared" ref="E3:E20" si="0">C3+D3</f>
         <v>52</v>
       </c>
     </row>
@@ -2403,6 +2403,12 @@
       <c r="D23">
         <f>D7+D8+D10+D11+D12+D13+D14</f>
         <v>82035</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C25">
+        <f>C21-C23</f>
+        <v>18485</v>
       </c>
     </row>
   </sheetData>
